--- a/策划/XiuXian.xlsx
+++ b/策划/XiuXian.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="1748">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -6584,10 +6584,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6686,6 +6686,14 @@
       </c>
       <c r="B12" t="s">
         <v>1747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/策划/XiuXian.xlsx
+++ b/策划/XiuXian.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4234" uniqueCount="1757">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -4675,7 +4675,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>1001-9</t>
+    <t>1001-0</t>
   </si>
   <si>
     <t>1001</t>
@@ -5548,10 +5548,25 @@
     <t>昵称为空</t>
   </si>
   <si>
+    <t>用户未登录</t>
+  </si>
+  <si>
     <t>异地登陆</t>
   </si>
   <si>
     <t>功能暂未开放</t>
+  </si>
+  <si>
+    <t>不能学习其他门派的技能</t>
+  </si>
+  <si>
+    <t>装备不能收藏</t>
+  </si>
+  <si>
+    <t>已收藏过</t>
+  </si>
+  <si>
+    <t>物品没有收藏过</t>
   </si>
 </sst>
 </file>
@@ -6596,10 +6611,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6705,7 +6720,7 @@
         <v>1008</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6713,7 +6728,7 @@
         <v>1009</v>
       </c>
       <c r="B14" t="s">
-        <v>1751</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6721,7 +6736,7 @@
         <v>1010</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6729,7 +6744,119 @@
         <v>1011</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1012</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1015</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1022</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1025</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -19430,7 +19557,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/策划/XiuXian.xlsx
+++ b/策划/XiuXian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3044B-4339-42F7-9CC3-2E91FF8990C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42B9B6-0150-4635-89CB-CBDA6E648813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="4185" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="1779">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -5687,6 +5687,10 @@
   </si>
   <si>
     <t>//贩卖物品id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6147,9 +6151,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6248,8 +6254,8 @@
       <c r="B12">
         <v>1007</v>
       </c>
-      <c r="C12" t="s">
-        <v>1600</v>
+      <c r="C12" s="11" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6257,7 +6263,7 @@
         <v>1008</v>
       </c>
       <c r="C13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6265,7 +6271,7 @@
         <v>1009</v>
       </c>
       <c r="C14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6273,7 +6279,7 @@
         <v>1010</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6281,7 +6287,7 @@
         <v>1011</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -6289,7 +6295,7 @@
         <v>1012</v>
       </c>
       <c r="C17" t="s">
-        <v>1603</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -6297,7 +6303,7 @@
         <v>1013</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -6305,7 +6311,7 @@
         <v>1014</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -6313,7 +6319,7 @@
         <v>1015</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -6321,7 +6327,7 @@
         <v>1016</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -6329,7 +6335,7 @@
         <v>1017</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -6337,7 +6343,7 @@
         <v>1018</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -6345,7 +6351,7 @@
         <v>1019</v>
       </c>
       <c r="C24" t="s">
-        <v>1604</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -6353,7 +6359,7 @@
         <v>1020</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -6361,7 +6367,7 @@
         <v>1021</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
@@ -6369,7 +6375,7 @@
         <v>1022</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
@@ -6377,7 +6383,7 @@
         <v>1023</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
@@ -6385,7 +6391,7 @@
         <v>1024</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -6393,7 +6399,7 @@
         <v>1025</v>
       </c>
       <c r="C30" t="s">
-        <v>1605</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
@@ -6401,7 +6407,7 @@
         <v>1026</v>
       </c>
       <c r="C31" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
@@ -6409,6 +6415,14 @@
         <v>1027</v>
       </c>
       <c r="C32" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1028</v>
+      </c>
+      <c r="C33" t="s">
         <v>1607</v>
       </c>
     </row>
@@ -19897,7 +19911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/策划/XiuXian.xlsx
+++ b/策划/XiuXian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B4EEC-D189-4864-8459-52812B8F7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED809B47-9FE3-432B-BDA3-02D5E70D721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1784">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -5192,10 +5192,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2009,1</t>
   </si>
   <si>
@@ -5692,6 +5688,24 @@
   </si>
   <si>
     <t>1001,1099</t>
+  </si>
+  <si>
+    <t>和对方还不是好友</t>
+  </si>
+  <si>
+    <t>和对方已经是好友了</t>
+  </si>
+  <si>
+    <t>未知的战斗类型</t>
+  </si>
+  <si>
+    <t>未知的战斗关卡</t>
+  </si>
+  <si>
+    <t>挑战次数不足</t>
+  </si>
+  <si>
+    <t>冷却未完成</t>
   </si>
 </sst>
 </file>
@@ -6151,10 +6165,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6255,7 +6269,7 @@
         <v>1007</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1612</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,6 +6438,54 @@
       </c>
       <c r="C33" t="s">
         <v>1441</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1029</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1030</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2003</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1783</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +6808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
@@ -7618,7 +7680,7 @@
         <v>68</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>1473</v>
@@ -7650,7 +7712,7 @@
         <v>68</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>1473</v>
@@ -7682,7 +7744,7 @@
         <v>68</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>1473</v>
@@ -7714,7 +7776,7 @@
         <v>68</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>1473</v>
@@ -7746,7 +7808,7 @@
         <v>68</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>1473</v>
@@ -7778,7 +7840,7 @@
         <v>68</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>1473</v>
@@ -7810,7 +7872,7 @@
         <v>68</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>1473</v>
@@ -7842,7 +7904,7 @@
         <v>68</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>1473</v>
@@ -7874,7 +7936,7 @@
         <v>68</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>1473</v>
@@ -7906,7 +7968,7 @@
         <v>68</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>1473</v>
@@ -7938,7 +8000,7 @@
         <v>68</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>1473</v>
@@ -7970,7 +8032,7 @@
         <v>68</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>1473</v>
@@ -8002,7 +8064,7 @@
         <v>68</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>1473</v>
@@ -8034,7 +8096,7 @@
         <v>68</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>1473</v>
@@ -8066,7 +8128,7 @@
         <v>68</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>1473</v>
@@ -8098,7 +8160,7 @@
         <v>68</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>1473</v>
@@ -8130,7 +8192,7 @@
         <v>68</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>1473</v>
@@ -8162,7 +8224,7 @@
         <v>68</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>1473</v>
@@ -8194,7 +8256,7 @@
         <v>68</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>1473</v>
@@ -8226,7 +8288,7 @@
         <v>68</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>1473</v>
@@ -8258,7 +8320,7 @@
         <v>68</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>1473</v>
@@ -8290,7 +8352,7 @@
         <v>68</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>1473</v>
@@ -8322,7 +8384,7 @@
         <v>68</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>1473</v>
@@ -8354,7 +8416,7 @@
         <v>68</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>1473</v>
@@ -8386,7 +8448,7 @@
         <v>68</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>1473</v>
@@ -8418,7 +8480,7 @@
         <v>68</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>1473</v>
@@ -8450,7 +8512,7 @@
         <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>1473</v>
@@ -8482,7 +8544,7 @@
         <v>68</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>1473</v>
@@ -8514,7 +8576,7 @@
         <v>68</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>1473</v>
@@ -8604,7 +8666,7 @@
         <v>68</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>1473</v>
@@ -8639,7 +8701,7 @@
         <v>68</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>1473</v>
@@ -8674,7 +8736,7 @@
         <v>68</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>1473</v>
@@ -8709,7 +8771,7 @@
         <v>68</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>1473</v>
@@ -8744,7 +8806,7 @@
         <v>68</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>1473</v>
@@ -8779,7 +8841,7 @@
         <v>68</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>1473</v>
@@ -8814,7 +8876,7 @@
         <v>68</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>1473</v>
@@ -8849,7 +8911,7 @@
         <v>68</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>1473</v>
@@ -8884,7 +8946,7 @@
         <v>68</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>1473</v>
@@ -8919,7 +8981,7 @@
         <v>68</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>1473</v>
@@ -8954,7 +9016,7 @@
         <v>68</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>1473</v>
@@ -8989,7 +9051,7 @@
         <v>68</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>1473</v>
@@ -9024,7 +9086,7 @@
         <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>1473</v>
@@ -9059,7 +9121,7 @@
         <v>68</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>1473</v>
@@ -9094,7 +9156,7 @@
         <v>68</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>1473</v>
@@ -9129,7 +9191,7 @@
         <v>68</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>1473</v>
@@ -9164,7 +9226,7 @@
         <v>68</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>1473</v>
@@ -9199,7 +9261,7 @@
         <v>68</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>1473</v>
@@ -9234,7 +9296,7 @@
         <v>68</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>1473</v>
@@ -9269,7 +9331,7 @@
         <v>68</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>1473</v>
@@ -9301,7 +9363,7 @@
         <v>68</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>1473</v>
@@ -9333,7 +9395,7 @@
         <v>68</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>1473</v>
@@ -9365,7 +9427,7 @@
         <v>68</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>1473</v>
@@ -9397,7 +9459,7 @@
         <v>68</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>1473</v>
@@ -9429,7 +9491,7 @@
         <v>68</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>1473</v>
@@ -9461,7 +9523,7 @@
         <v>68</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>1473</v>
@@ -9496,7 +9558,7 @@
         <v>68</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>1473</v>
@@ -9531,7 +9593,7 @@
         <v>68</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>1473</v>
@@ -9566,7 +9628,7 @@
         <v>68</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>1473</v>
@@ -9601,7 +9663,7 @@
         <v>68</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>1473</v>
@@ -9636,7 +9698,7 @@
         <v>68</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>1473</v>
@@ -9671,7 +9733,7 @@
         <v>68</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>1473</v>
@@ -9706,7 +9768,7 @@
         <v>68</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>1473</v>
@@ -9741,7 +9803,7 @@
         <v>68</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>1473</v>
@@ -9776,7 +9838,7 @@
         <v>68</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>1473</v>
@@ -9808,7 +9870,7 @@
         <v>68</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>1473</v>
@@ -9840,7 +9902,7 @@
         <v>68</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>1473</v>
@@ -9872,7 +9934,7 @@
         <v>68</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>1473</v>
@@ -9904,7 +9966,7 @@
         <v>68</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K100" s="12" t="s">
         <v>1473</v>
@@ -9936,7 +9998,7 @@
         <v>68</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>1473</v>
@@ -9968,7 +10030,7 @@
         <v>68</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>1473</v>
@@ -10000,7 +10062,7 @@
         <v>68</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>1473</v>
@@ -10032,7 +10094,7 @@
         <v>68</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>1473</v>
@@ -10064,7 +10126,7 @@
         <v>68</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>1473</v>
@@ -10096,7 +10158,7 @@
         <v>68</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K106" s="12" t="s">
         <v>1473</v>
@@ -10128,7 +10190,7 @@
         <v>68</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>1473</v>
@@ -10160,7 +10222,7 @@
         <v>68</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K108" s="12" t="s">
         <v>1473</v>
@@ -10192,7 +10254,7 @@
         <v>68</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>1473</v>
@@ -10224,7 +10286,7 @@
         <v>68</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>1473</v>
@@ -10256,7 +10318,7 @@
         <v>68</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>1473</v>
@@ -10288,7 +10350,7 @@
         <v>68</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>1473</v>
@@ -10320,7 +10382,7 @@
         <v>68</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>1473</v>
@@ -10352,7 +10414,7 @@
         <v>68</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>1473</v>
@@ -10384,7 +10446,7 @@
         <v>68</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>1473</v>
@@ -10416,7 +10478,7 @@
         <v>68</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>1473</v>
@@ -10448,7 +10510,7 @@
         <v>68</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>1473</v>
@@ -10480,7 +10542,7 @@
         <v>68</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K118" s="12" t="s">
         <v>1473</v>
@@ -10512,7 +10574,7 @@
         <v>68</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>1473</v>
@@ -10544,7 +10606,7 @@
         <v>68</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K120" s="12" t="s">
         <v>1473</v>
@@ -10576,7 +10638,7 @@
         <v>68</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>1473</v>
@@ -10608,7 +10670,7 @@
         <v>68</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K122" s="12" t="s">
         <v>1473</v>
@@ -10640,7 +10702,7 @@
         <v>68</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K123" s="12" t="s">
         <v>1473</v>
@@ -10672,7 +10734,7 @@
         <v>68</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K124" s="12" t="s">
         <v>1473</v>
@@ -10704,7 +10766,7 @@
         <v>68</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>1473</v>
@@ -10736,7 +10798,7 @@
         <v>68</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K126" s="12" t="s">
         <v>1473</v>
@@ -10768,7 +10830,7 @@
         <v>68</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K127" s="12" t="s">
         <v>1473</v>
@@ -10800,7 +10862,7 @@
         <v>68</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K128" s="12" t="s">
         <v>1473</v>
@@ -10832,7 +10894,7 @@
         <v>68</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K129" s="12" t="s">
         <v>1473</v>
@@ -10864,7 +10926,7 @@
         <v>68</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K130" s="12" t="s">
         <v>1473</v>
@@ -10896,7 +10958,7 @@
         <v>68</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K131" s="12" t="s">
         <v>1473</v>
@@ -10928,7 +10990,7 @@
         <v>68</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K132" s="12" t="s">
         <v>1473</v>
@@ -10960,7 +11022,7 @@
         <v>68</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>1473</v>
@@ -10992,7 +11054,7 @@
         <v>68</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K134" s="12" t="s">
         <v>1473</v>
@@ -11024,7 +11086,7 @@
         <v>68</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K135" s="12" t="s">
         <v>1473</v>
@@ -11056,7 +11118,7 @@
         <v>68</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K136" s="12" t="s">
         <v>1473</v>
@@ -11088,7 +11150,7 @@
         <v>68</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>1473</v>
@@ -11120,7 +11182,7 @@
         <v>68</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K138" s="12" t="s">
         <v>1473</v>
@@ -11152,7 +11214,7 @@
         <v>68</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>1473</v>
@@ -11184,7 +11246,7 @@
         <v>68</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K140" s="12" t="s">
         <v>1473</v>
@@ -11216,7 +11278,7 @@
         <v>68</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>1473</v>
@@ -11248,7 +11310,7 @@
         <v>68</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K142" s="12" t="s">
         <v>1473</v>
@@ -11280,7 +11342,7 @@
         <v>68</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>1473</v>
@@ -11312,7 +11374,7 @@
         <v>68</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K144" s="12" t="s">
         <v>1473</v>
@@ -11344,7 +11406,7 @@
         <v>68</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>1473</v>
@@ -11376,7 +11438,7 @@
         <v>68</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K146" s="12" t="s">
         <v>1473</v>
@@ -11408,7 +11470,7 @@
         <v>68</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>1473</v>
@@ -11440,7 +11502,7 @@
         <v>68</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>1473</v>
@@ -11472,7 +11534,7 @@
         <v>68</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K149" s="12" t="s">
         <v>1473</v>
@@ -11504,7 +11566,7 @@
         <v>68</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K150" s="12" t="s">
         <v>1473</v>
@@ -11536,7 +11598,7 @@
         <v>68</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>1473</v>
@@ -11568,7 +11630,7 @@
         <v>68</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>1473</v>
@@ -11600,7 +11662,7 @@
         <v>68</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K153" s="12" t="s">
         <v>1473</v>
@@ -11632,7 +11694,7 @@
         <v>68</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K154" s="12" t="s">
         <v>1473</v>
@@ -11664,7 +11726,7 @@
         <v>68</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K155" s="12" t="s">
         <v>1473</v>
@@ -11696,7 +11758,7 @@
         <v>68</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K156" s="12" t="s">
         <v>1473</v>
@@ -11728,7 +11790,7 @@
         <v>68</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K157" s="12" t="s">
         <v>1473</v>
@@ -11760,7 +11822,7 @@
         <v>68</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K158" s="12" t="s">
         <v>1473</v>
@@ -11792,7 +11854,7 @@
         <v>68</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K159" s="12" t="s">
         <v>1473</v>
@@ -11824,7 +11886,7 @@
         <v>68</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K160" s="12" t="s">
         <v>1473</v>
@@ -11856,7 +11918,7 @@
         <v>68</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K161" s="12" t="s">
         <v>1473</v>
@@ -11888,7 +11950,7 @@
         <v>68</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K162" s="12" t="s">
         <v>1473</v>
@@ -11920,7 +11982,7 @@
         <v>68</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K163" s="12" t="s">
         <v>1473</v>
@@ -11952,7 +12014,7 @@
         <v>68</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K164" s="12" t="s">
         <v>1473</v>
@@ -11984,7 +12046,7 @@
         <v>68</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K165" s="12" t="s">
         <v>1473</v>
@@ -12016,7 +12078,7 @@
         <v>68</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K166" s="12" t="s">
         <v>1473</v>
@@ -12048,7 +12110,7 @@
         <v>68</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K167" s="12" t="s">
         <v>1473</v>
@@ -12080,7 +12142,7 @@
         <v>68</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K168" s="12" t="s">
         <v>1473</v>
@@ -12112,7 +12174,7 @@
         <v>68</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K169" s="12" t="s">
         <v>1473</v>
@@ -12144,7 +12206,7 @@
         <v>68</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K170" s="12" t="s">
         <v>1473</v>
@@ -12176,7 +12238,7 @@
         <v>68</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K171" s="12" t="s">
         <v>1473</v>
@@ -12208,7 +12270,7 @@
         <v>68</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K172" s="12" t="s">
         <v>1473</v>
@@ -12240,7 +12302,7 @@
         <v>68</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K173" s="12" t="s">
         <v>1473</v>
@@ -12272,7 +12334,7 @@
         <v>68</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K174" s="12" t="s">
         <v>1473</v>
@@ -12304,7 +12366,7 @@
         <v>68</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K175" s="12" t="s">
         <v>1473</v>
@@ -12336,7 +12398,7 @@
         <v>68</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K176" s="12" t="s">
         <v>1473</v>
@@ -12368,7 +12430,7 @@
         <v>68</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K177" s="12" t="s">
         <v>1473</v>
@@ -12400,7 +12462,7 @@
         <v>68</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K178" s="12" t="s">
         <v>1473</v>
@@ -12432,7 +12494,7 @@
         <v>68</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K179" s="12" t="s">
         <v>1473</v>
@@ -12464,7 +12526,7 @@
         <v>68</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K180" s="12" t="s">
         <v>1473</v>
@@ -12496,7 +12558,7 @@
         <v>68</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K181" s="12" t="s">
         <v>1473</v>
@@ -12528,7 +12590,7 @@
         <v>68</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K182" s="12" t="s">
         <v>1473</v>
@@ -12560,7 +12622,7 @@
         <v>68</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K183" s="12" t="s">
         <v>1473</v>
@@ -12592,7 +12654,7 @@
         <v>68</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K184" s="12" t="s">
         <v>1473</v>
@@ -12624,7 +12686,7 @@
         <v>68</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K185" s="12" t="s">
         <v>1473</v>
@@ -12656,7 +12718,7 @@
         <v>68</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K186" s="12" t="s">
         <v>1473</v>
@@ -12688,7 +12750,7 @@
         <v>68</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K187" s="12" t="s">
         <v>1473</v>
@@ -12720,7 +12782,7 @@
         <v>68</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K188" s="12" t="s">
         <v>1473</v>
@@ -12752,7 +12814,7 @@
         <v>68</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K189" s="12" t="s">
         <v>1473</v>
@@ -12784,7 +12846,7 @@
         <v>68</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K190" s="12" t="s">
         <v>1473</v>
@@ -12816,7 +12878,7 @@
         <v>68</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K191" s="12" t="s">
         <v>1473</v>
@@ -12848,7 +12910,7 @@
         <v>68</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K192" s="12" t="s">
         <v>1473</v>
@@ -12880,7 +12942,7 @@
         <v>68</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K193" s="12" t="s">
         <v>1473</v>
@@ -12912,7 +12974,7 @@
         <v>68</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K194" s="12" t="s">
         <v>1473</v>
@@ -12944,7 +13006,7 @@
         <v>68</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K195" s="12" t="s">
         <v>1473</v>
@@ -12976,7 +13038,7 @@
         <v>68</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K196" s="12" t="s">
         <v>1473</v>
@@ -13008,7 +13070,7 @@
         <v>68</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K197" s="12" t="s">
         <v>1473</v>
@@ -13040,7 +13102,7 @@
         <v>68</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K198" s="12" t="s">
         <v>1473</v>
@@ -13072,7 +13134,7 @@
         <v>68</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K199" s="12" t="s">
         <v>1473</v>
@@ -13104,7 +13166,7 @@
         <v>68</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K200" s="12" t="s">
         <v>1473</v>
@@ -13136,7 +13198,7 @@
         <v>68</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K201" s="12" t="s">
         <v>1473</v>
@@ -13168,7 +13230,7 @@
         <v>68</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K202" s="12" t="s">
         <v>1473</v>
@@ -13200,7 +13262,7 @@
         <v>68</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K203" s="12" t="s">
         <v>1473</v>
@@ -13232,7 +13294,7 @@
         <v>68</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K204" s="12" t="s">
         <v>1473</v>
@@ -13264,7 +13326,7 @@
         <v>68</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K205" s="12" t="s">
         <v>1473</v>
@@ -13296,7 +13358,7 @@
         <v>68</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K206" s="12" t="s">
         <v>1473</v>
@@ -13328,7 +13390,7 @@
         <v>68</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K207" s="12" t="s">
         <v>1473</v>
@@ -13360,7 +13422,7 @@
         <v>68</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K208" s="12" t="s">
         <v>1473</v>
@@ -13392,7 +13454,7 @@
         <v>68</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K209" s="12" t="s">
         <v>1473</v>
@@ -13424,7 +13486,7 @@
         <v>68</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K210" s="12" t="s">
         <v>1473</v>
@@ -13456,7 +13518,7 @@
         <v>68</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K211" s="12" t="s">
         <v>1473</v>
@@ -13488,7 +13550,7 @@
         <v>68</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K212" s="12" t="s">
         <v>1473</v>
@@ -13520,7 +13582,7 @@
         <v>68</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K213" s="12" t="s">
         <v>1473</v>
@@ -13552,7 +13614,7 @@
         <v>68</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K214" s="12" t="s">
         <v>1473</v>
@@ -13584,7 +13646,7 @@
         <v>68</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K215" s="12" t="s">
         <v>1473</v>
@@ -13616,7 +13678,7 @@
         <v>68</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K216" s="12" t="s">
         <v>1473</v>
@@ -13648,7 +13710,7 @@
         <v>68</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K217" s="12" t="s">
         <v>1473</v>
@@ -13680,7 +13742,7 @@
         <v>68</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K218" s="12" t="s">
         <v>1473</v>
@@ -13712,7 +13774,7 @@
         <v>68</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K219" s="12" t="s">
         <v>1473</v>
@@ -13744,7 +13806,7 @@
         <v>68</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K220" s="12" t="s">
         <v>1473</v>
@@ -13776,7 +13838,7 @@
         <v>68</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K221" s="12" t="s">
         <v>1473</v>
@@ -13808,7 +13870,7 @@
         <v>68</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K222" s="12" t="s">
         <v>1473</v>
@@ -13840,7 +13902,7 @@
         <v>68</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K223" s="12" t="s">
         <v>1473</v>
@@ -13872,7 +13934,7 @@
         <v>68</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K224" s="12" t="s">
         <v>1473</v>
@@ -13904,7 +13966,7 @@
         <v>68</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K225" s="12" t="s">
         <v>1473</v>
@@ -13936,7 +13998,7 @@
         <v>68</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K226" s="12" t="s">
         <v>1473</v>
@@ -13968,7 +14030,7 @@
         <v>68</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K227" s="12" t="s">
         <v>1473</v>
@@ -14000,7 +14062,7 @@
         <v>68</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K228" s="12" t="s">
         <v>1473</v>
@@ -14032,7 +14094,7 @@
         <v>68</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K229" s="12" t="s">
         <v>1473</v>
@@ -14064,7 +14126,7 @@
         <v>68</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K230" s="12" t="s">
         <v>1473</v>
@@ -14096,7 +14158,7 @@
         <v>68</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K231" s="12" t="s">
         <v>1473</v>
@@ -14128,7 +14190,7 @@
         <v>68</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K232" s="12" t="s">
         <v>1473</v>
@@ -14160,7 +14222,7 @@
         <v>68</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K233" s="12" t="s">
         <v>1473</v>
@@ -14192,7 +14254,7 @@
         <v>68</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K234" s="12" t="s">
         <v>1473</v>
@@ -14224,7 +14286,7 @@
         <v>68</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K235" s="12" t="s">
         <v>1473</v>
@@ -14256,7 +14318,7 @@
         <v>68</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K236" s="12" t="s">
         <v>1473</v>
@@ -14288,7 +14350,7 @@
         <v>68</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K237" s="12" t="s">
         <v>1473</v>
@@ -14320,7 +14382,7 @@
         <v>68</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K238" s="12" t="s">
         <v>1473</v>
@@ -14352,7 +14414,7 @@
         <v>68</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K239" s="12" t="s">
         <v>1473</v>
@@ -14384,7 +14446,7 @@
         <v>68</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K240" s="12" t="s">
         <v>1473</v>
@@ -14416,7 +14478,7 @@
         <v>68</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K241" s="12" t="s">
         <v>1473</v>
@@ -14448,7 +14510,7 @@
         <v>68</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K242" s="12" t="s">
         <v>1473</v>
@@ -14480,7 +14542,7 @@
         <v>68</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K243" s="12" t="s">
         <v>1473</v>
@@ -14512,7 +14574,7 @@
         <v>68</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K244" s="12" t="s">
         <v>1473</v>
@@ -14544,7 +14606,7 @@
         <v>68</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K245" s="12" t="s">
         <v>1473</v>
@@ -14576,7 +14638,7 @@
         <v>68</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K246" s="12" t="s">
         <v>1473</v>
@@ -14608,7 +14670,7 @@
         <v>68</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K247" s="12" t="s">
         <v>1473</v>
@@ -14640,7 +14702,7 @@
         <v>68</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K248" s="12" t="s">
         <v>1473</v>
@@ -14672,7 +14734,7 @@
         <v>68</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K249" s="12" t="s">
         <v>1473</v>
@@ -14704,7 +14766,7 @@
         <v>68</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K250" s="12" t="s">
         <v>1473</v>
@@ -14736,7 +14798,7 @@
         <v>68</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K251" s="12" t="s">
         <v>1473</v>
@@ -14768,7 +14830,7 @@
         <v>68</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K252" s="12" t="s">
         <v>1473</v>
@@ -14800,7 +14862,7 @@
         <v>68</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K253" s="12" t="s">
         <v>1473</v>
@@ -14832,7 +14894,7 @@
         <v>68</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K254" s="12" t="s">
         <v>1473</v>
@@ -14864,7 +14926,7 @@
         <v>68</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K255" s="12" t="s">
         <v>1473</v>
@@ -14896,7 +14958,7 @@
         <v>68</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K256" s="12" t="s">
         <v>1473</v>
@@ -14928,7 +14990,7 @@
         <v>68</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K257" s="12" t="s">
         <v>1473</v>
@@ -14960,7 +15022,7 @@
         <v>68</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K258" s="12" t="s">
         <v>1473</v>
@@ -14992,7 +15054,7 @@
         <v>68</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K259" s="12" t="s">
         <v>1473</v>
@@ -15024,7 +15086,7 @@
         <v>68</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K260" s="12" t="s">
         <v>1473</v>
@@ -15056,7 +15118,7 @@
         <v>68</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K261" s="12" t="s">
         <v>1473</v>
@@ -15088,7 +15150,7 @@
         <v>68</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K262" s="12" t="s">
         <v>1473</v>
@@ -15120,7 +15182,7 @@
         <v>68</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K263" s="12" t="s">
         <v>1473</v>
@@ -15152,7 +15214,7 @@
         <v>68</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K264" s="12" t="s">
         <v>1473</v>
@@ -15184,7 +15246,7 @@
         <v>68</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K265" s="12" t="s">
         <v>1473</v>
@@ -15216,7 +15278,7 @@
         <v>68</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K266" s="12" t="s">
         <v>1473</v>
@@ -15248,7 +15310,7 @@
         <v>68</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K267" s="12" t="s">
         <v>1473</v>
@@ -15280,7 +15342,7 @@
         <v>68</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K268" s="12" t="s">
         <v>1473</v>
@@ -15312,7 +15374,7 @@
         <v>68</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K269" s="12" t="s">
         <v>1473</v>
@@ -15344,7 +15406,7 @@
         <v>68</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K270" s="12" t="s">
         <v>1473</v>
@@ -15376,7 +15438,7 @@
         <v>68</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K271" s="12" t="s">
         <v>1473</v>
@@ -15408,7 +15470,7 @@
         <v>68</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K272" s="12" t="s">
         <v>1473</v>
@@ -15440,7 +15502,7 @@
         <v>68</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K273" s="12" t="s">
         <v>1473</v>
@@ -15472,7 +15534,7 @@
         <v>68</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K274" s="12" t="s">
         <v>1473</v>
@@ -15504,7 +15566,7 @@
         <v>68</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K275" s="12" t="s">
         <v>1473</v>
@@ -15536,7 +15598,7 @@
         <v>68</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K276" s="12" t="s">
         <v>1473</v>
@@ -15568,7 +15630,7 @@
         <v>68</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K277" s="12" t="s">
         <v>1473</v>
@@ -15600,7 +15662,7 @@
         <v>68</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K278" s="12" t="s">
         <v>1473</v>
@@ -15632,7 +15694,7 @@
         <v>68</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K279" s="12" t="s">
         <v>1473</v>
@@ -15664,7 +15726,7 @@
         <v>68</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K280" s="12" t="s">
         <v>1473</v>
@@ -15696,7 +15758,7 @@
         <v>68</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K281" s="12" t="s">
         <v>1473</v>
@@ -15728,7 +15790,7 @@
         <v>68</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K282" s="12" t="s">
         <v>1473</v>
@@ -15760,7 +15822,7 @@
         <v>68</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K283" s="12" t="s">
         <v>1473</v>
@@ -15792,7 +15854,7 @@
         <v>68</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K284" s="12" t="s">
         <v>1473</v>
@@ -15824,7 +15886,7 @@
         <v>68</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K285" s="12" t="s">
         <v>1473</v>
@@ -15856,7 +15918,7 @@
         <v>68</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K286" s="12" t="s">
         <v>1473</v>
@@ -15888,7 +15950,7 @@
         <v>68</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K287" s="12" t="s">
         <v>1473</v>
@@ -15920,7 +15982,7 @@
         <v>68</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K288" s="12" t="s">
         <v>1473</v>
@@ -15952,7 +16014,7 @@
         <v>68</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K289" s="12" t="s">
         <v>1473</v>
@@ -15984,7 +16046,7 @@
         <v>68</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K290" s="12" t="s">
         <v>1473</v>
@@ -16016,7 +16078,7 @@
         <v>68</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K291" s="12" t="s">
         <v>1473</v>
@@ -16048,7 +16110,7 @@
         <v>68</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K292" s="12" t="s">
         <v>1473</v>
@@ -16080,7 +16142,7 @@
         <v>68</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K293" s="12" t="s">
         <v>1473</v>
@@ -16112,7 +16174,7 @@
         <v>68</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K294" s="12" t="s">
         <v>1473</v>
@@ -16144,7 +16206,7 @@
         <v>68</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K295" s="12" t="s">
         <v>1473</v>
@@ -16170,7 +16232,7 @@
         <v>68</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="K296" s="2" t="s">
         <v>1473</v>
@@ -16196,7 +16258,7 @@
         <v>68</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K297" s="2" t="s">
         <v>1473</v>
@@ -16222,7 +16284,7 @@
         <v>68</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="K298" s="2" t="s">
         <v>1473</v>
@@ -16248,7 +16310,7 @@
         <v>68</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K299" s="2" t="s">
         <v>1473</v>
@@ -16274,7 +16336,7 @@
         <v>68</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K300" s="2" t="s">
         <v>1473</v>
@@ -16300,7 +16362,7 @@
         <v>68</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K301" s="2" t="s">
         <v>1473</v>
@@ -16326,7 +16388,7 @@
         <v>68</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="K302" s="2" t="s">
         <v>1473</v>
@@ -16352,7 +16414,7 @@
         <v>68</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="K303" s="2" t="s">
         <v>1473</v>
@@ -16378,7 +16440,7 @@
         <v>68</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="K304" s="2" t="s">
         <v>1473</v>
@@ -16404,7 +16466,7 @@
         <v>68</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="K305" s="2" t="s">
         <v>1473</v>
@@ -16430,7 +16492,7 @@
         <v>68</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="K306" s="2" t="s">
         <v>1473</v>
@@ -16456,7 +16518,7 @@
         <v>68</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K307" s="2" t="s">
         <v>1473</v>
@@ -16482,7 +16544,7 @@
         <v>68</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K308" s="2" t="s">
         <v>1473</v>
@@ -16508,7 +16570,7 @@
         <v>68</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K309" s="2" t="s">
         <v>1473</v>
@@ -16534,7 +16596,7 @@
         <v>68</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K310" s="2" t="s">
         <v>1473</v>
@@ -16560,7 +16622,7 @@
         <v>68</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K311" s="2" t="s">
         <v>1473</v>
@@ -16586,7 +16648,7 @@
         <v>68</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K312" s="2" t="s">
         <v>1473</v>
@@ -16612,7 +16674,7 @@
         <v>68</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K313" s="2" t="s">
         <v>1473</v>
@@ -16638,7 +16700,7 @@
         <v>68</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K314" s="2" t="s">
         <v>1473</v>
@@ -16664,7 +16726,7 @@
         <v>68</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K315" s="2" t="s">
         <v>1473</v>
@@ -16690,7 +16752,7 @@
         <v>68</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K316" s="2" t="s">
         <v>1473</v>
@@ -16716,7 +16778,7 @@
         <v>68</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K317" s="2" t="s">
         <v>1473</v>
@@ -16742,7 +16804,7 @@
         <v>68</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K318" s="2" t="s">
         <v>1473</v>
@@ -16768,7 +16830,7 @@
         <v>68</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K319" s="2" t="s">
         <v>1473</v>
@@ -16794,7 +16856,7 @@
         <v>68</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K320" s="2" t="s">
         <v>1473</v>
@@ -16820,7 +16882,7 @@
         <v>68</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K321" s="2" t="s">
         <v>1473</v>
@@ -16846,7 +16908,7 @@
         <v>68</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K322" s="2" t="s">
         <v>1473</v>
@@ -16872,7 +16934,7 @@
         <v>68</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K323" s="2" t="s">
         <v>1473</v>
@@ -16898,7 +16960,7 @@
         <v>68</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K324" s="2" t="s">
         <v>1473</v>
@@ -16924,7 +16986,7 @@
         <v>68</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K325" s="2" t="s">
         <v>1473</v>
@@ -16950,7 +17012,7 @@
         <v>68</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K326" s="2" t="s">
         <v>1473</v>
@@ -16976,7 +17038,7 @@
         <v>68</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K327" s="2" t="s">
         <v>1473</v>
@@ -17002,7 +17064,7 @@
         <v>68</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K328" s="2" t="s">
         <v>1473</v>
@@ -17028,7 +17090,7 @@
         <v>68</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K329" s="2" t="s">
         <v>1473</v>
@@ -17054,7 +17116,7 @@
         <v>68</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K330" s="2" t="s">
         <v>1473</v>
@@ -17080,7 +17142,7 @@
         <v>68</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K331" s="2" t="s">
         <v>1473</v>
@@ -17106,7 +17168,7 @@
         <v>68</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K332" s="2" t="s">
         <v>1473</v>
@@ -17132,7 +17194,7 @@
         <v>68</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K333" s="2" t="s">
         <v>1473</v>
@@ -17158,7 +17220,7 @@
         <v>68</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K334" s="2" t="s">
         <v>1473</v>
@@ -17184,7 +17246,7 @@
         <v>68</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K335" s="2" t="s">
         <v>1473</v>
@@ -17210,7 +17272,7 @@
         <v>68</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K336" s="2" t="s">
         <v>1473</v>
@@ -17236,7 +17298,7 @@
         <v>68</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K337" s="2" t="s">
         <v>1473</v>
@@ -17262,7 +17324,7 @@
         <v>68</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="K338" s="2" t="s">
         <v>1473</v>
@@ -17288,7 +17350,7 @@
         <v>68</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="K339" s="2" t="s">
         <v>1473</v>
@@ -17314,7 +17376,7 @@
         <v>68</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="K340" s="2" t="s">
         <v>1473</v>
@@ -17340,7 +17402,7 @@
         <v>68</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K341" s="2" t="s">
         <v>1473</v>
@@ -17366,7 +17428,7 @@
         <v>68</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K342" s="2" t="s">
         <v>1473</v>
@@ -17392,7 +17454,7 @@
         <v>68</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K343" s="2" t="s">
         <v>1473</v>
@@ -17418,7 +17480,7 @@
         <v>68</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K344" s="2" t="s">
         <v>1473</v>
@@ -17444,7 +17506,7 @@
         <v>68</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K345" s="2" t="s">
         <v>1473</v>
@@ -17470,7 +17532,7 @@
         <v>68</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="K346" s="2" t="s">
         <v>1473</v>
@@ -17496,7 +17558,7 @@
         <v>68</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>1473</v>
@@ -17522,7 +17584,7 @@
         <v>68</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K348" s="2" t="s">
         <v>1473</v>
@@ -17548,7 +17610,7 @@
         <v>68</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K349" s="2" t="s">
         <v>1473</v>
@@ -17574,7 +17636,7 @@
         <v>68</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K350" s="2" t="s">
         <v>1473</v>
@@ -17600,7 +17662,7 @@
         <v>68</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K351" s="2" t="s">
         <v>1473</v>
@@ -17626,7 +17688,7 @@
         <v>68</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="K352" s="2" t="s">
         <v>1473</v>
@@ -17652,7 +17714,7 @@
         <v>68</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K353" s="2" t="s">
         <v>1473</v>
@@ -17678,7 +17740,7 @@
         <v>68</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="K354" s="2" t="s">
         <v>1473</v>
@@ -17704,7 +17766,7 @@
         <v>68</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="K355" s="2" t="s">
         <v>1473</v>
@@ -17730,7 +17792,7 @@
         <v>68</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K356" s="2" t="s">
         <v>1473</v>
@@ -17756,7 +17818,7 @@
         <v>68</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K357" s="2" t="s">
         <v>1473</v>
@@ -17782,7 +17844,7 @@
         <v>68</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>1473</v>
@@ -17808,7 +17870,7 @@
         <v>68</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="K359" s="2" t="s">
         <v>1473</v>
@@ -17834,7 +17896,7 @@
         <v>68</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="K360" s="2" t="s">
         <v>1473</v>
@@ -17860,7 +17922,7 @@
         <v>68</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K361" s="2" t="s">
         <v>1473</v>
@@ -17886,7 +17948,7 @@
         <v>68</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="K362" s="2" t="s">
         <v>1473</v>
@@ -17912,7 +17974,7 @@
         <v>68</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>1473</v>
@@ -17938,7 +18000,7 @@
         <v>68</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K364" s="2" t="s">
         <v>1473</v>
@@ -17964,7 +18026,7 @@
         <v>68</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K365" s="2" t="s">
         <v>1473</v>
@@ -17990,7 +18052,7 @@
         <v>68</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="K366" s="2" t="s">
         <v>1473</v>
@@ -18016,7 +18078,7 @@
         <v>68</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>1473</v>
@@ -18042,7 +18104,7 @@
         <v>68</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="K368" s="2" t="s">
         <v>1473</v>
@@ -18068,7 +18130,7 @@
         <v>68</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="K369" s="2" t="s">
         <v>1473</v>
@@ -18094,7 +18156,7 @@
         <v>68</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="K370" s="2" t="s">
         <v>1473</v>
@@ -18120,7 +18182,7 @@
         <v>68</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="K371" s="2" t="s">
         <v>1473</v>
@@ -18146,7 +18208,7 @@
         <v>68</v>
       </c>
       <c r="J372" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K372" s="2" t="s">
         <v>1473</v>
@@ -18172,7 +18234,7 @@
         <v>68</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="K373" s="2" t="s">
         <v>1473</v>
@@ -18198,7 +18260,7 @@
         <v>68</v>
       </c>
       <c r="J374" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K374" s="2" t="s">
         <v>1473</v>
@@ -18224,7 +18286,7 @@
         <v>68</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="K375" s="2" t="s">
         <v>1473</v>
@@ -18250,7 +18312,7 @@
         <v>68</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K376" s="2" t="s">
         <v>1473</v>
@@ -18276,7 +18338,7 @@
         <v>68</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="K377" s="2" t="s">
         <v>1473</v>
@@ -18302,7 +18364,7 @@
         <v>68</v>
       </c>
       <c r="J378" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>1473</v>
@@ -18328,7 +18390,7 @@
         <v>68</v>
       </c>
       <c r="J379" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="K379" s="2" t="s">
         <v>1473</v>
@@ -18354,7 +18416,7 @@
         <v>68</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>1473</v>
@@ -18380,7 +18442,7 @@
         <v>68</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>1473</v>
@@ -18406,7 +18468,7 @@
         <v>68</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K382" s="2" t="s">
         <v>1473</v>
@@ -18432,7 +18494,7 @@
         <v>68</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>1473</v>
@@ -18458,7 +18520,7 @@
         <v>68</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K384" s="2" t="s">
         <v>1473</v>
@@ -18484,7 +18546,7 @@
         <v>68</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K385" s="2" t="s">
         <v>1473</v>
@@ -18510,7 +18572,7 @@
         <v>68</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K386" s="2" t="s">
         <v>1473</v>
@@ -18536,7 +18598,7 @@
         <v>68</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="K387" s="2" t="s">
         <v>1473</v>
@@ -18562,7 +18624,7 @@
         <v>68</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>1473</v>
@@ -18588,7 +18650,7 @@
         <v>68</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K389" s="2" t="s">
         <v>1473</v>
@@ -18614,7 +18676,7 @@
         <v>68</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="K390" s="2" t="s">
         <v>1473</v>
@@ -18640,7 +18702,7 @@
         <v>68</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>1473</v>
@@ -18666,7 +18728,7 @@
         <v>68</v>
       </c>
       <c r="J392" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="K392" s="4" t="s">
         <v>1473</v>
@@ -18692,7 +18754,7 @@
         <v>68</v>
       </c>
       <c r="J393" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K393" s="4" t="s">
         <v>1473</v>
@@ -18718,7 +18780,7 @@
         <v>68</v>
       </c>
       <c r="J394" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="K394" s="4" t="s">
         <v>1473</v>
@@ -18744,7 +18806,7 @@
         <v>68</v>
       </c>
       <c r="J395" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K395" s="4" t="s">
         <v>1473</v>

--- a/策划/XiuXian.xlsx
+++ b/策划/XiuXian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED809B47-9FE3-432B-BDA3-02D5E70D721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EF53D-545B-460D-9CA3-91801740F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="420" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1785">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -4601,9 +4601,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>啥也没有</t>
-  </si>
-  <si>
     <t>未知的命令</t>
   </si>
   <si>
@@ -5706,6 +5703,12 @@
   </si>
   <si>
     <t>冷却未完成</t>
+  </si>
+  <si>
+    <t>今日已签过到</t>
+  </si>
+  <si>
+    <t>品不存在</t>
   </si>
 </sst>
 </file>
@@ -6167,8 +6170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B36:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6178,7 +6181,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -6189,7 +6192,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" t="s">
         <v>1425</v>
@@ -6202,7 +6205,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="s">
         <v>1426</v>
@@ -6210,7 +6213,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
         <v>1427</v>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C6" t="s">
         <v>1428</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
         <v>1429</v>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C8" t="s">
         <v>1430</v>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C9" t="s">
         <v>1431</v>
@@ -6250,7 +6253,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C10" t="s">
         <v>1432</v>
@@ -6258,23 +6261,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1006</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1433</v>
+        <v>1007</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1007</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
+        <v>1008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C13" t="s">
         <v>1434</v>
@@ -6282,7 +6285,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C14" t="s">
         <v>1435</v>
@@ -6290,15 +6293,15 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C15" t="s">
-        <v>1436</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -6306,7 +6309,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -6314,15 +6317,15 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -6338,7 +6341,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -6346,15 +6349,15 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -6362,7 +6365,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -6370,15 +6373,15 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C25" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -6394,7 +6397,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -6402,7 +6405,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -6410,7 +6413,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -6418,42 +6421,42 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C31" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C32" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C33" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C34" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C35" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -6461,7 +6464,7 @@
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -6469,7 +6472,7 @@
         <v>2001</v>
       </c>
       <c r="C37" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -6477,7 +6480,7 @@
         <v>2002</v>
       </c>
       <c r="C38" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -6485,7 +6488,7 @@
         <v>2003</v>
       </c>
       <c r="C39" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
   </sheetData>
@@ -6511,10 +6514,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -6522,10 +6525,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1442</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6828,69 +6831,69 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>1470</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>1456</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>1448</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>1451</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -6945,7 +6948,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6968,7 +6971,7 @@
         <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -6991,7 +6994,7 @@
         <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -7014,7 +7017,7 @@
         <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -7037,7 +7040,7 @@
         <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -7060,7 +7063,7 @@
         <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7083,7 +7086,7 @@
         <v>69</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7106,7 +7109,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -7129,7 +7132,7 @@
         <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7158,7 +7161,7 @@
         <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7187,7 +7190,7 @@
         <v>69</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7216,7 +7219,7 @@
         <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7245,7 +7248,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7274,7 +7277,7 @@
         <v>69</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7303,7 +7306,7 @@
         <v>69</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7332,7 +7335,7 @@
         <v>69</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7361,7 +7364,7 @@
         <v>69</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7390,7 +7393,7 @@
         <v>69</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7419,7 +7422,7 @@
         <v>69</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -7448,7 +7451,7 @@
         <v>69</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7477,7 +7480,7 @@
         <v>69</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7506,7 +7509,7 @@
         <v>69</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7535,7 +7538,7 @@
         <v>69</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7564,7 +7567,7 @@
         <v>69</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7593,7 +7596,7 @@
         <v>69</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7622,7 +7625,7 @@
         <v>69</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7651,7 +7654,7 @@
         <v>69</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -7680,10 +7683,10 @@
         <v>68</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7712,10 +7715,10 @@
         <v>68</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7744,10 +7747,10 @@
         <v>68</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -7776,10 +7779,10 @@
         <v>68</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -7808,10 +7811,10 @@
         <v>68</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7840,10 +7843,10 @@
         <v>68</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7872,10 +7875,10 @@
         <v>68</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7904,10 +7907,10 @@
         <v>68</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7936,10 +7939,10 @@
         <v>68</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7968,10 +7971,10 @@
         <v>68</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8000,10 +8003,10 @@
         <v>68</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8032,10 +8035,10 @@
         <v>68</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8064,10 +8067,10 @@
         <v>68</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8096,10 +8099,10 @@
         <v>68</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8128,10 +8131,10 @@
         <v>68</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8160,10 +8163,10 @@
         <v>68</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8192,10 +8195,10 @@
         <v>68</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8224,10 +8227,10 @@
         <v>68</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="49" spans="2:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8256,10 +8259,10 @@
         <v>68</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="50" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8288,10 +8291,10 @@
         <v>68</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="51" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8320,10 +8323,10 @@
         <v>68</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="52" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8352,10 +8355,10 @@
         <v>68</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="53" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8384,10 +8387,10 @@
         <v>68</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="54" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8416,10 +8419,10 @@
         <v>68</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="55" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8448,10 +8451,10 @@
         <v>68</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="56" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8480,10 +8483,10 @@
         <v>68</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="57" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8512,10 +8515,10 @@
         <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="58" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8544,10 +8547,10 @@
         <v>68</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -8576,10 +8579,10 @@
         <v>68</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="60" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8608,7 +8611,7 @@
         <v>69</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="61" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8637,7 +8640,7 @@
         <v>69</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -8666,10 +8669,10 @@
         <v>68</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>212</v>
@@ -8701,10 +8704,10 @@
         <v>68</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>216</v>
@@ -8736,10 +8739,10 @@
         <v>68</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>216</v>
@@ -8771,10 +8774,10 @@
         <v>68</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>216</v>
@@ -8806,10 +8809,10 @@
         <v>68</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>216</v>
@@ -8841,10 +8844,10 @@
         <v>68</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>216</v>
@@ -8876,10 +8879,10 @@
         <v>68</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>216</v>
@@ -8911,10 +8914,10 @@
         <v>68</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>235</v>
@@ -8946,10 +8949,10 @@
         <v>68</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>235</v>
@@ -8981,10 +8984,10 @@
         <v>68</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>235</v>
@@ -9016,10 +9019,10 @@
         <v>68</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>235</v>
@@ -9051,10 +9054,10 @@
         <v>68</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>235</v>
@@ -9086,10 +9089,10 @@
         <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>235</v>
@@ -9121,10 +9124,10 @@
         <v>68</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>254</v>
@@ -9156,10 +9159,10 @@
         <v>68</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>254</v>
@@ -9191,10 +9194,10 @@
         <v>68</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>254</v>
@@ -9226,10 +9229,10 @@
         <v>68</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>254</v>
@@ -9261,10 +9264,10 @@
         <v>68</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>254</v>
@@ -9296,10 +9299,10 @@
         <v>68</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>254</v>
@@ -9331,10 +9334,10 @@
         <v>68</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="82" spans="2:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -9363,10 +9366,10 @@
         <v>68</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="83" spans="2:12" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -9395,10 +9398,10 @@
         <v>68</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="84" spans="2:12" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -9427,10 +9430,10 @@
         <v>68</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="85" spans="2:12" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -9459,10 +9462,10 @@
         <v>68</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="86" spans="2:12" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -9491,10 +9494,10 @@
         <v>68</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -9523,10 +9526,10 @@
         <v>68</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>290</v>
@@ -9558,10 +9561,10 @@
         <v>68</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>293</v>
@@ -9593,10 +9596,10 @@
         <v>68</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>296</v>
@@ -9628,10 +9631,10 @@
         <v>68</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>299</v>
@@ -9663,10 +9666,10 @@
         <v>68</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>302</v>
@@ -9698,10 +9701,10 @@
         <v>68</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>305</v>
@@ -9733,10 +9736,10 @@
         <v>68</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>308</v>
@@ -9768,10 +9771,10 @@
         <v>68</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>311</v>
@@ -9803,10 +9806,10 @@
         <v>68</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>314</v>
@@ -9838,10 +9841,10 @@
         <v>68</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="97" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9870,10 +9873,10 @@
         <v>68</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="98" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9902,10 +9905,10 @@
         <v>68</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="99" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9934,10 +9937,10 @@
         <v>68</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="100" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9966,10 +9969,10 @@
         <v>68</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="101" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9998,10 +10001,10 @@
         <v>68</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="102" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10030,10 +10033,10 @@
         <v>68</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="103" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10062,10 +10065,10 @@
         <v>68</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="104" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10094,10 +10097,10 @@
         <v>68</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="105" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10126,10 +10129,10 @@
         <v>68</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="106" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10158,10 +10161,10 @@
         <v>68</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="107" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10190,10 +10193,10 @@
         <v>68</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="108" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10222,10 +10225,10 @@
         <v>68</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="109" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10254,10 +10257,10 @@
         <v>68</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="110" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10286,10 +10289,10 @@
         <v>68</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="111" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10318,10 +10321,10 @@
         <v>68</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="112" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10350,10 +10353,10 @@
         <v>68</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="113" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10382,10 +10385,10 @@
         <v>68</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="114" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10414,10 +10417,10 @@
         <v>68</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="115" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10446,10 +10449,10 @@
         <v>68</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="116" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10478,10 +10481,10 @@
         <v>68</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="117" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10510,10 +10513,10 @@
         <v>68</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="118" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10542,10 +10545,10 @@
         <v>68</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="119" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10574,10 +10577,10 @@
         <v>68</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="120" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10606,10 +10609,10 @@
         <v>68</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="121" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10638,10 +10641,10 @@
         <v>68</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="122" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10670,10 +10673,10 @@
         <v>68</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="123" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10702,10 +10705,10 @@
         <v>68</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="124" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10734,10 +10737,10 @@
         <v>68</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="125" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10766,10 +10769,10 @@
         <v>68</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="126" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10798,10 +10801,10 @@
         <v>68</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="127" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10830,10 +10833,10 @@
         <v>68</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="128" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10862,10 +10865,10 @@
         <v>68</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="129" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10894,10 +10897,10 @@
         <v>68</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="130" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10926,10 +10929,10 @@
         <v>68</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="131" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10958,10 +10961,10 @@
         <v>68</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="132" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -10990,10 +10993,10 @@
         <v>68</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="133" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11022,10 +11025,10 @@
         <v>68</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="134" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11054,10 +11057,10 @@
         <v>68</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="135" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11086,10 +11089,10 @@
         <v>68</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="136" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11118,10 +11121,10 @@
         <v>68</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="137" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11150,10 +11153,10 @@
         <v>68</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="138" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11182,10 +11185,10 @@
         <v>68</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="139" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11214,10 +11217,10 @@
         <v>68</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="140" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11246,10 +11249,10 @@
         <v>68</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="141" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11278,10 +11281,10 @@
         <v>68</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="142" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11310,10 +11313,10 @@
         <v>68</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="143" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11342,10 +11345,10 @@
         <v>68</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="144" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11374,10 +11377,10 @@
         <v>68</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="145" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -11406,10 +11409,10 @@
         <v>68</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="146" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11438,10 +11441,10 @@
         <v>68</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="147" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11470,10 +11473,10 @@
         <v>68</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="148" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11502,10 +11505,10 @@
         <v>68</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="149" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11534,10 +11537,10 @@
         <v>68</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="150" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11566,10 +11569,10 @@
         <v>68</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="151" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11598,10 +11601,10 @@
         <v>68</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="152" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11630,10 +11633,10 @@
         <v>68</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="153" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11662,10 +11665,10 @@
         <v>68</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="154" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11694,10 +11697,10 @@
         <v>68</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="155" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11726,10 +11729,10 @@
         <v>68</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="156" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11758,10 +11761,10 @@
         <v>68</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="157" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11790,10 +11793,10 @@
         <v>68</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="158" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11822,10 +11825,10 @@
         <v>68</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="159" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11854,10 +11857,10 @@
         <v>68</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="160" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11886,10 +11889,10 @@
         <v>68</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="161" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11918,10 +11921,10 @@
         <v>68</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="162" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11950,10 +11953,10 @@
         <v>68</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="163" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11982,10 +11985,10 @@
         <v>68</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="164" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12014,10 +12017,10 @@
         <v>68</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="165" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12046,10 +12049,10 @@
         <v>68</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K165" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="166" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12078,10 +12081,10 @@
         <v>68</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="167" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12110,10 +12113,10 @@
         <v>68</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="168" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12142,10 +12145,10 @@
         <v>68</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="169" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12174,10 +12177,10 @@
         <v>68</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="170" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12206,10 +12209,10 @@
         <v>68</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="171" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12238,10 +12241,10 @@
         <v>68</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="172" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12270,10 +12273,10 @@
         <v>68</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="173" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12302,10 +12305,10 @@
         <v>68</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K173" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="174" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12334,10 +12337,10 @@
         <v>68</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K174" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="175" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12366,10 +12369,10 @@
         <v>68</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K175" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="176" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12398,10 +12401,10 @@
         <v>68</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K176" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="177" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12430,10 +12433,10 @@
         <v>68</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K177" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="178" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12462,10 +12465,10 @@
         <v>68</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K178" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="179" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12494,10 +12497,10 @@
         <v>68</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K179" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="180" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12526,10 +12529,10 @@
         <v>68</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K180" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="181" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12558,10 +12561,10 @@
         <v>68</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K181" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="182" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12590,10 +12593,10 @@
         <v>68</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K182" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="183" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12622,10 +12625,10 @@
         <v>68</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K183" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="184" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12654,10 +12657,10 @@
         <v>68</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K184" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="185" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12686,10 +12689,10 @@
         <v>68</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K185" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="186" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12718,10 +12721,10 @@
         <v>68</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K186" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="187" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12750,10 +12753,10 @@
         <v>68</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K187" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="188" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12782,10 +12785,10 @@
         <v>68</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K188" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="189" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12814,10 +12817,10 @@
         <v>68</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K189" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="190" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12846,10 +12849,10 @@
         <v>68</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K190" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="191" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12878,10 +12881,10 @@
         <v>68</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K191" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="192" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12910,10 +12913,10 @@
         <v>68</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K192" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="193" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12942,10 +12945,10 @@
         <v>68</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K193" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="194" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -12974,10 +12977,10 @@
         <v>68</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K194" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="195" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13006,10 +13009,10 @@
         <v>68</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K195" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="196" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13038,10 +13041,10 @@
         <v>68</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K196" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="197" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13070,10 +13073,10 @@
         <v>68</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K197" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="198" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13102,10 +13105,10 @@
         <v>68</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K198" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="199" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13134,10 +13137,10 @@
         <v>68</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K199" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="200" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13166,10 +13169,10 @@
         <v>68</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K200" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="201" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13198,10 +13201,10 @@
         <v>68</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="202" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13230,10 +13233,10 @@
         <v>68</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K202" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="203" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13262,10 +13265,10 @@
         <v>68</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K203" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="204" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13294,10 +13297,10 @@
         <v>68</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K204" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="205" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13326,10 +13329,10 @@
         <v>68</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="206" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13358,10 +13361,10 @@
         <v>68</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K206" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="207" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13390,10 +13393,10 @@
         <v>68</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="208" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13422,10 +13425,10 @@
         <v>68</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K208" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="209" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13454,10 +13457,10 @@
         <v>68</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K209" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="210" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13486,10 +13489,10 @@
         <v>68</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K210" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="211" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13518,10 +13521,10 @@
         <v>68</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K211" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="212" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13550,10 +13553,10 @@
         <v>68</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K212" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="213" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13582,10 +13585,10 @@
         <v>68</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K213" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="214" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13614,10 +13617,10 @@
         <v>68</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K214" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="215" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13646,10 +13649,10 @@
         <v>68</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="216" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13678,10 +13681,10 @@
         <v>68</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K216" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="217" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13710,10 +13713,10 @@
         <v>68</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K217" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="218" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13742,10 +13745,10 @@
         <v>68</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K218" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="219" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13774,10 +13777,10 @@
         <v>68</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="220" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13806,10 +13809,10 @@
         <v>68</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K220" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="221" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13838,10 +13841,10 @@
         <v>68</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K221" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="222" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13870,10 +13873,10 @@
         <v>68</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K222" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="223" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13902,10 +13905,10 @@
         <v>68</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K223" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="224" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13934,10 +13937,10 @@
         <v>68</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K224" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="225" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -13966,10 +13969,10 @@
         <v>68</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K225" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="226" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -13998,10 +14001,10 @@
         <v>68</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K226" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="227" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14030,10 +14033,10 @@
         <v>68</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K227" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="228" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14062,10 +14065,10 @@
         <v>68</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K228" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="229" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14094,10 +14097,10 @@
         <v>68</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K229" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="230" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14126,10 +14129,10 @@
         <v>68</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K230" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="231" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14158,10 +14161,10 @@
         <v>68</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K231" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="232" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14190,10 +14193,10 @@
         <v>68</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K232" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="233" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14222,10 +14225,10 @@
         <v>68</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K233" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="234" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14254,10 +14257,10 @@
         <v>68</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K234" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="235" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14286,10 +14289,10 @@
         <v>68</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K235" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="236" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14318,10 +14321,10 @@
         <v>68</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K236" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="237" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14350,10 +14353,10 @@
         <v>68</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K237" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="238" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14382,10 +14385,10 @@
         <v>68</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K238" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="239" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14414,10 +14417,10 @@
         <v>68</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K239" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="240" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14446,10 +14449,10 @@
         <v>68</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K240" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="241" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14478,10 +14481,10 @@
         <v>68</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K241" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="242" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14510,10 +14513,10 @@
         <v>68</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K242" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="243" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14542,10 +14545,10 @@
         <v>68</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K243" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="244" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14574,10 +14577,10 @@
         <v>68</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K244" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="245" spans="2:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14606,10 +14609,10 @@
         <v>68</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K245" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="246" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14638,10 +14641,10 @@
         <v>68</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K246" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="247" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14670,10 +14673,10 @@
         <v>68</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K247" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="248" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14702,10 +14705,10 @@
         <v>68</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K248" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="249" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14734,10 +14737,10 @@
         <v>68</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K249" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="250" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14766,10 +14769,10 @@
         <v>68</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K250" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="251" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14798,10 +14801,10 @@
         <v>68</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K251" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="252" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14830,10 +14833,10 @@
         <v>68</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K252" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="253" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14862,10 +14865,10 @@
         <v>68</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K253" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="254" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14894,10 +14897,10 @@
         <v>68</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K254" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="255" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14926,10 +14929,10 @@
         <v>68</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K255" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="256" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14958,10 +14961,10 @@
         <v>68</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K256" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="257" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14990,10 +14993,10 @@
         <v>68</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K257" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="258" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15022,10 +15025,10 @@
         <v>68</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K258" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="259" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15054,10 +15057,10 @@
         <v>68</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K259" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="260" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15086,10 +15089,10 @@
         <v>68</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K260" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="261" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15118,10 +15121,10 @@
         <v>68</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K261" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="262" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15150,10 +15153,10 @@
         <v>68</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K262" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="263" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15182,10 +15185,10 @@
         <v>68</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K263" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="264" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15214,10 +15217,10 @@
         <v>68</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K264" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="265" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15246,10 +15249,10 @@
         <v>68</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K265" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="266" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15278,10 +15281,10 @@
         <v>68</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K266" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="267" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15310,10 +15313,10 @@
         <v>68</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K267" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="268" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15342,10 +15345,10 @@
         <v>68</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K268" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="269" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15374,10 +15377,10 @@
         <v>68</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K269" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="270" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15406,10 +15409,10 @@
         <v>68</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K270" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="271" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15438,10 +15441,10 @@
         <v>68</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K271" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="272" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15470,10 +15473,10 @@
         <v>68</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K272" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="273" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15502,10 +15505,10 @@
         <v>68</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K273" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="274" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15534,10 +15537,10 @@
         <v>68</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K274" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="275" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15566,10 +15569,10 @@
         <v>68</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K275" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="276" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15598,10 +15601,10 @@
         <v>68</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K276" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="277" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15630,10 +15633,10 @@
         <v>68</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K277" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="278" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15662,10 +15665,10 @@
         <v>68</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K278" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="279" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15694,10 +15697,10 @@
         <v>68</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K279" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="280" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15726,10 +15729,10 @@
         <v>68</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K280" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="281" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15758,10 +15761,10 @@
         <v>68</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K281" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="282" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15790,10 +15793,10 @@
         <v>68</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K282" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="283" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15822,10 +15825,10 @@
         <v>68</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K283" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="284" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15854,10 +15857,10 @@
         <v>68</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K284" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="285" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15886,10 +15889,10 @@
         <v>68</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K285" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="286" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15918,10 +15921,10 @@
         <v>68</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K286" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="287" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15950,10 +15953,10 @@
         <v>68</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K287" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="288" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -15982,10 +15985,10 @@
         <v>68</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K288" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="289" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16014,10 +16017,10 @@
         <v>68</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K289" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="290" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16046,10 +16049,10 @@
         <v>68</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K290" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="291" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16078,10 +16081,10 @@
         <v>68</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K291" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="292" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16110,10 +16113,10 @@
         <v>68</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K292" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="293" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16142,10 +16145,10 @@
         <v>68</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K293" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="294" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16174,10 +16177,10 @@
         <v>68</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K294" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="295" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -16206,10 +16209,10 @@
         <v>68</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K295" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="296" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16232,10 +16235,10 @@
         <v>68</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="297" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16258,10 +16261,10 @@
         <v>68</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="298" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16284,10 +16287,10 @@
         <v>68</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="299" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16310,10 +16313,10 @@
         <v>68</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="300" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16336,10 +16339,10 @@
         <v>68</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="301" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16362,10 +16365,10 @@
         <v>68</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="302" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16388,10 +16391,10 @@
         <v>68</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="303" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16414,10 +16417,10 @@
         <v>68</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="304" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16440,10 +16443,10 @@
         <v>68</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="K304" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="305" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16466,10 +16469,10 @@
         <v>68</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="306" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16492,10 +16495,10 @@
         <v>68</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="K306" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="307" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16518,10 +16521,10 @@
         <v>68</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="308" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16544,10 +16547,10 @@
         <v>68</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="309" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16570,10 +16573,10 @@
         <v>68</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="310" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16596,10 +16599,10 @@
         <v>68</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="311" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16622,10 +16625,10 @@
         <v>68</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K311" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="312" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16648,10 +16651,10 @@
         <v>68</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K312" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="313" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16674,10 +16677,10 @@
         <v>68</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="314" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16700,10 +16703,10 @@
         <v>68</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="315" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16726,10 +16729,10 @@
         <v>68</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="316" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16752,10 +16755,10 @@
         <v>68</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="317" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16778,10 +16781,10 @@
         <v>68</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="318" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16804,10 +16807,10 @@
         <v>68</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="319" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16830,10 +16833,10 @@
         <v>68</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="320" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16856,10 +16859,10 @@
         <v>68</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K320" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="321" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16882,10 +16885,10 @@
         <v>68</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="322" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16908,10 +16911,10 @@
         <v>68</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K322" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="323" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16934,10 +16937,10 @@
         <v>68</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K323" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="324" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16960,10 +16963,10 @@
         <v>68</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="325" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16986,10 +16989,10 @@
         <v>68</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K325" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="326" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17012,10 +17015,10 @@
         <v>68</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="327" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17038,10 +17041,10 @@
         <v>68</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="328" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17064,10 +17067,10 @@
         <v>68</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="329" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17090,10 +17093,10 @@
         <v>68</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="330" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17116,10 +17119,10 @@
         <v>68</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="331" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17142,10 +17145,10 @@
         <v>68</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="332" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17168,10 +17171,10 @@
         <v>68</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="333" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17194,10 +17197,10 @@
         <v>68</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="334" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17220,10 +17223,10 @@
         <v>68</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="335" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17246,10 +17249,10 @@
         <v>68</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="336" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17272,10 +17275,10 @@
         <v>68</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="337" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17298,10 +17301,10 @@
         <v>68</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="338" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17324,10 +17327,10 @@
         <v>68</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="339" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17350,10 +17353,10 @@
         <v>68</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="340" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17376,10 +17379,10 @@
         <v>68</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="341" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17402,10 +17405,10 @@
         <v>68</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="342" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17428,10 +17431,10 @@
         <v>68</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="343" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17454,10 +17457,10 @@
         <v>68</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="344" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17480,10 +17483,10 @@
         <v>68</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="345" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17506,10 +17509,10 @@
         <v>68</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="346" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17532,10 +17535,10 @@
         <v>68</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="347" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17558,10 +17561,10 @@
         <v>68</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="348" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17584,10 +17587,10 @@
         <v>68</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="349" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17610,10 +17613,10 @@
         <v>68</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="350" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17636,10 +17639,10 @@
         <v>68</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="351" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17662,10 +17665,10 @@
         <v>68</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="352" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17688,10 +17691,10 @@
         <v>68</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="353" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17714,10 +17717,10 @@
         <v>68</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="354" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17740,10 +17743,10 @@
         <v>68</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="355" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17766,10 +17769,10 @@
         <v>68</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="356" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17792,10 +17795,10 @@
         <v>68</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="357" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17818,10 +17821,10 @@
         <v>68</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="358" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17844,10 +17847,10 @@
         <v>68</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="359" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17870,10 +17873,10 @@
         <v>68</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="360" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17896,10 +17899,10 @@
         <v>68</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="361" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17922,10 +17925,10 @@
         <v>68</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="362" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17948,10 +17951,10 @@
         <v>68</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="363" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17974,10 +17977,10 @@
         <v>68</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="364" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18000,10 +18003,10 @@
         <v>68</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="365" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18026,10 +18029,10 @@
         <v>68</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="366" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18052,10 +18055,10 @@
         <v>68</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="367" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18078,10 +18081,10 @@
         <v>68</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="368" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18104,10 +18107,10 @@
         <v>68</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="369" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18130,10 +18133,10 @@
         <v>68</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="370" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18156,10 +18159,10 @@
         <v>68</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="371" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18182,10 +18185,10 @@
         <v>68</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="372" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18208,10 +18211,10 @@
         <v>68</v>
       </c>
       <c r="J372" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="K372" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="373" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18234,10 +18237,10 @@
         <v>68</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="374" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18260,10 +18263,10 @@
         <v>68</v>
       </c>
       <c r="J374" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="K374" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="375" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18286,10 +18289,10 @@
         <v>68</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K375" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="376" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18312,10 +18315,10 @@
         <v>68</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="377" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18338,10 +18341,10 @@
         <v>68</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="378" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18364,10 +18367,10 @@
         <v>68</v>
       </c>
       <c r="J378" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="379" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18390,10 +18393,10 @@
         <v>68</v>
       </c>
       <c r="J379" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="K379" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="380" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18416,10 +18419,10 @@
         <v>68</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="K380" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="381" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18442,10 +18445,10 @@
         <v>68</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K381" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="382" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18468,10 +18471,10 @@
         <v>68</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="K382" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="383" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18494,10 +18497,10 @@
         <v>68</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K383" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="384" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18520,10 +18523,10 @@
         <v>68</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="385" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18546,10 +18549,10 @@
         <v>68</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="386" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18572,10 +18575,10 @@
         <v>68</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="387" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18598,10 +18601,10 @@
         <v>68</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="388" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18624,10 +18627,10 @@
         <v>68</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="389" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18650,10 +18653,10 @@
         <v>68</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="390" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18676,10 +18679,10 @@
         <v>68</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="391" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18702,10 +18705,10 @@
         <v>68</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="392" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18728,10 +18731,10 @@
         <v>68</v>
       </c>
       <c r="J392" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="K392" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="393" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18754,10 +18757,10 @@
         <v>68</v>
       </c>
       <c r="J393" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="K393" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="394" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18780,10 +18783,10 @@
         <v>68</v>
       </c>
       <c r="J394" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K394" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="395" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18806,10 +18809,10 @@
         <v>68</v>
       </c>
       <c r="J395" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="K395" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -18837,10 +18840,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -18848,10 +18851,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -19420,10 +19423,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -19434,13 +19437,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19576,7 +19579,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
@@ -19585,18 +19588,18 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19649,7 +19652,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
@@ -19658,7 +19661,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -19687,37 +19690,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>1458</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>1462</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>1464</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -19987,7 +19990,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -19996,7 +19999,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -20004,21 +20007,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1467</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1266</v>
@@ -20035,7 +20038,7 @@
         <v>1269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -20049,7 +20052,7 @@
         <v>1271</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -20063,7 +20066,7 @@
         <v>1273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>68</v>
@@ -20077,7 +20080,7 @@
         <v>1275</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>68</v>
@@ -20091,7 +20094,7 @@
         <v>1277</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
@@ -20105,7 +20108,7 @@
         <v>1279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
@@ -20119,7 +20122,7 @@
         <v>1281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
@@ -20133,7 +20136,7 @@
         <v>1282</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
@@ -20147,7 +20150,7 @@
         <v>1283</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
@@ -20161,7 +20164,7 @@
         <v>1284</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>68</v>
@@ -20175,7 +20178,7 @@
         <v>1285</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>68</v>
@@ -20189,7 +20192,7 @@
         <v>1287</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>68</v>
@@ -20203,7 +20206,7 @@
         <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>68</v>
@@ -20217,7 +20220,7 @@
         <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>73</v>
@@ -20231,7 +20234,7 @@
         <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>73</v>
@@ -20245,7 +20248,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>73</v>
@@ -20259,7 +20262,7 @@
         <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>73</v>
@@ -20273,7 +20276,7 @@
         <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>73</v>
@@ -20287,7 +20290,7 @@
         <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>73</v>
@@ -20301,7 +20304,7 @@
         <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>73</v>
@@ -20315,7 +20318,7 @@
         <v>153</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>73</v>
@@ -20329,7 +20332,7 @@
         <v>159</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>73</v>
@@ -20343,7 +20346,7 @@
         <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>73</v>
@@ -20357,7 +20360,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>73</v>
@@ -20371,7 +20374,7 @@
         <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
@@ -20385,7 +20388,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>73</v>
@@ -20399,7 +20402,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>73</v>
@@ -20413,7 +20416,7 @@
         <v>1296</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>68</v>
@@ -20427,7 +20430,7 @@
         <v>1298</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>68</v>
@@ -20441,7 +20444,7 @@
         <v>1300</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>68</v>
@@ -20455,7 +20458,7 @@
         <v>1302</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>68</v>
@@ -20469,7 +20472,7 @@
         <v>1304</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>68</v>
@@ -20483,7 +20486,7 @@
         <v>1306</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>68</v>
@@ -20497,7 +20500,7 @@
         <v>1308</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>68</v>
@@ -20511,7 +20514,7 @@
         <v>1310</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>68</v>
@@ -20525,7 +20528,7 @@
         <v>1312</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>68</v>
@@ -20539,7 +20542,7 @@
         <v>1314</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>68</v>
@@ -20553,7 +20556,7 @@
         <v>1316</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>75</v>
@@ -20567,7 +20570,7 @@
         <v>1318</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>75</v>
@@ -20581,7 +20584,7 @@
         <v>1320</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>75</v>
@@ -20595,7 +20598,7 @@
         <v>1322</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>75</v>
@@ -20609,7 +20612,7 @@
         <v>1324</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>75</v>
@@ -20623,7 +20626,7 @@
         <v>1326</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>75</v>
@@ -20637,7 +20640,7 @@
         <v>1328</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>75</v>
@@ -20651,7 +20654,7 @@
         <v>1330</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>75</v>
@@ -20665,7 +20668,7 @@
         <v>1332</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>75</v>
@@ -20679,7 +20682,7 @@
         <v>5002</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>75</v>
@@ -20693,7 +20696,7 @@
         <v>5003</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>75</v>
@@ -20707,7 +20710,7 @@
         <v>5004</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>75</v>
@@ -20721,7 +20724,7 @@
         <v>5005</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>75</v>
@@ -20735,7 +20738,7 @@
         <v>5006</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>75</v>
@@ -20749,7 +20752,7 @@
         <v>5007</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>75</v>
@@ -20763,7 +20766,7 @@
         <v>5008</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>75</v>
@@ -20777,7 +20780,7 @@
         <v>5009</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>75</v>
@@ -20791,7 +20794,7 @@
         <v>5010</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>75</v>
@@ -20805,7 +20808,7 @@
         <v>5011</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>75</v>
@@ -20819,7 +20822,7 @@
         <v>5012</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>75</v>
@@ -20833,7 +20836,7 @@
         <v>5013</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>75</v>
@@ -20847,7 +20850,7 @@
         <v>5014</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>75</v>
@@ -20861,7 +20864,7 @@
         <v>5015</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>75</v>
@@ -20875,7 +20878,7 @@
         <v>5016</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>75</v>
@@ -20889,7 +20892,7 @@
         <v>5017</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>75</v>
@@ -20903,7 +20906,7 @@
         <v>5018</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>75</v>
@@ -20917,7 +20920,7 @@
         <v>5019</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>75</v>
@@ -20931,7 +20934,7 @@
         <v>5020</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>75</v>
@@ -20945,7 +20948,7 @@
         <v>5021</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>75</v>
@@ -20959,7 +20962,7 @@
         <v>5022</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>75</v>
@@ -20973,7 +20976,7 @@
         <v>5023</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>75</v>
@@ -20987,7 +20990,7 @@
         <v>5024</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>75</v>
@@ -21001,7 +21004,7 @@
         <v>5025</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>75</v>
@@ -21015,7 +21018,7 @@
         <v>5026</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>75</v>
@@ -21029,7 +21032,7 @@
         <v>315</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>71</v>
@@ -21043,7 +21046,7 @@
         <v>346</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>71</v>
@@ -21057,7 +21060,7 @@
         <v>376</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>71</v>
@@ -21071,7 +21074,7 @@
         <v>406</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>71</v>
@@ -21085,7 +21088,7 @@
         <v>436</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>71</v>
@@ -21099,7 +21102,7 @@
         <v>466</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>71</v>
@@ -21113,7 +21116,7 @@
         <v>496</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>71</v>
@@ -21127,7 +21130,7 @@
         <v>526</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>71</v>
@@ -21141,7 +21144,7 @@
         <v>556</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>71</v>
@@ -21155,7 +21158,7 @@
         <v>586</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>71</v>
@@ -21169,7 +21172,7 @@
         <v>616</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>71</v>
@@ -21183,7 +21186,7 @@
         <v>646</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>71</v>
@@ -21197,7 +21200,7 @@
         <v>676</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>71</v>
@@ -21211,7 +21214,7 @@
         <v>706</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>71</v>
@@ -21225,7 +21228,7 @@
         <v>736</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>71</v>
@@ -21239,7 +21242,7 @@
         <v>766</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>71</v>
@@ -21253,7 +21256,7 @@
         <v>796</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>71</v>
@@ -21267,7 +21270,7 @@
         <v>826</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>71</v>
@@ -21281,7 +21284,7 @@
         <v>856</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>71</v>
@@ -21295,7 +21298,7 @@
         <v>886</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>71</v>
@@ -21309,7 +21312,7 @@
         <v>318</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>71</v>
@@ -21323,7 +21326,7 @@
         <v>349</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>71</v>
@@ -21337,7 +21340,7 @@
         <v>379</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>71</v>
@@ -21351,7 +21354,7 @@
         <v>409</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>71</v>
@@ -21365,7 +21368,7 @@
         <v>439</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>71</v>
@@ -21379,7 +21382,7 @@
         <v>469</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>71</v>
@@ -21393,7 +21396,7 @@
         <v>499</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>71</v>
@@ -21407,7 +21410,7 @@
         <v>529</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>71</v>
@@ -21421,7 +21424,7 @@
         <v>559</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>71</v>
@@ -21435,7 +21438,7 @@
         <v>589</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>71</v>
@@ -21449,7 +21452,7 @@
         <v>619</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>71</v>
@@ -21463,7 +21466,7 @@
         <v>649</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>71</v>
@@ -21477,7 +21480,7 @@
         <v>679</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>71</v>
@@ -21491,7 +21494,7 @@
         <v>709</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>71</v>
@@ -21505,7 +21508,7 @@
         <v>739</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>71</v>
@@ -21519,7 +21522,7 @@
         <v>769</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>71</v>
@@ -21533,7 +21536,7 @@
         <v>799</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>71</v>
@@ -21547,7 +21550,7 @@
         <v>829</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>71</v>
@@ -21561,7 +21564,7 @@
         <v>859</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>71</v>
@@ -21575,7 +21578,7 @@
         <v>889</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>71</v>
@@ -21589,7 +21592,7 @@
         <v>321</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>71</v>
@@ -21603,7 +21606,7 @@
         <v>352</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>71</v>
@@ -21617,7 +21620,7 @@
         <v>382</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>71</v>
@@ -21631,7 +21634,7 @@
         <v>412</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>71</v>
@@ -21645,7 +21648,7 @@
         <v>442</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>71</v>
@@ -21659,7 +21662,7 @@
         <v>472</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>71</v>
@@ -21673,7 +21676,7 @@
         <v>502</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>71</v>
@@ -21687,7 +21690,7 @@
         <v>532</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>71</v>
@@ -21701,7 +21704,7 @@
         <v>562</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>71</v>
@@ -21715,7 +21718,7 @@
         <v>592</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>71</v>
@@ -21729,7 +21732,7 @@
         <v>622</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>71</v>
@@ -21743,7 +21746,7 @@
         <v>652</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>71</v>
@@ -21757,7 +21760,7 @@
         <v>682</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>71</v>
@@ -21771,7 +21774,7 @@
         <v>712</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>71</v>
@@ -21785,7 +21788,7 @@
         <v>742</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>71</v>
@@ -21799,7 +21802,7 @@
         <v>772</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>71</v>
@@ -21813,7 +21816,7 @@
         <v>802</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>71</v>
@@ -21827,7 +21830,7 @@
         <v>832</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>71</v>
@@ -21841,7 +21844,7 @@
         <v>862</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>71</v>
@@ -21855,7 +21858,7 @@
         <v>892</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>71</v>
@@ -21869,7 +21872,7 @@
         <v>113</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>68</v>
@@ -21883,7 +21886,7 @@
         <v>116</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>68</v>
@@ -21897,7 +21900,7 @@
         <v>119</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>68</v>
@@ -21911,7 +21914,7 @@
         <v>122</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>68</v>
@@ -21925,7 +21928,7 @@
         <v>125</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>68</v>
@@ -21954,7 +21957,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -21965,15 +21968,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
